--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1987150.323325519</v>
+        <v>2102413.345620637</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16614581.94299117</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>318032.2590466435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5306769.651121649</v>
+        <v>5788096.522698768</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>63.58070035666352</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -725,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>295.6165023737031</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,10 +876,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>212.9450041785556</v>
+        <v>190.312534778726</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>184.9281164001994</v>
       </c>
       <c r="V5" t="n">
-        <v>143.5062754865797</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1105,10 +1107,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>78.47678022721453</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>99.28616603324218</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>381.0966073341255</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>70.75434793228359</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1345,13 +1347,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.5034900290094</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.412621479131429</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800139</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>309.5684357728513</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1534,16 +1536,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>73.01514676193291</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>71.49788411901537</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.412621479131429</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800139</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>84.25216048196009</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>365.5286939938218</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1774,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345401</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>29.18607610565435</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1850,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1904,7 +1906,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>153.2006427344324</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2065,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2096,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2132,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735226246</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2485,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9536135021265</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998597</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>161.6379250432762</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>131.9969996527466</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>122.9742767430576</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3436,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3472,13 +3474,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U37" t="n">
-        <v>191.0148624863771</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>216.6020410093178</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3749,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>236.8165082185545</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>13.68534442440865</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3898,13 +3900,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>116.0434079398617</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3980,13 +3982,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>309.5684357728504</v>
       </c>
       <c r="W44" t="n">
-        <v>266.9685482522708</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>54.53682144529114</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.040072665448</v>
+        <v>552.3238179760524</v>
       </c>
       <c r="C2" t="n">
-        <v>1233.817143012253</v>
+        <v>518.2217491998797</v>
       </c>
       <c r="D2" t="n">
-        <v>1201.947762227101</v>
+        <v>486.3523684147282</v>
       </c>
       <c r="E2" t="n">
-        <v>768.1730173853965</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.11942280532</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739146</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.64701815018</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1324.544958769894</v>
+        <v>1277.225916111165</v>
       </c>
       <c r="Y2" t="n">
-        <v>1320.299239109952</v>
+        <v>978.6233884609602</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1043.799427915185</v>
+        <v>593.9750599092082</v>
       </c>
       <c r="C4" t="n">
-        <v>871.2377163984103</v>
+        <v>593.9750599092082</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W4" t="n">
-        <v>1463.037717320064</v>
+        <v>821.3947305950999</v>
       </c>
       <c r="X4" t="n">
-        <v>1463.037717320064</v>
+        <v>821.3947305950999</v>
       </c>
       <c r="Y4" t="n">
-        <v>1235.618046634173</v>
+        <v>593.9750599092082</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.5213804116894</v>
+        <v>1674.185399119638</v>
       </c>
       <c r="C5" t="n">
-        <v>428.3789075951127</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D5" t="n">
-        <v>396.5095268099613</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E5" t="n">
-        <v>366.7751860086605</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4571,19 +4573,19 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="O5" t="n">
-        <v>1810.336013065103</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P5" t="n">
-        <v>2471.176067606882</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
         <v>2670.060826431428</v>
@@ -4598,19 +4600,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2483.264749259509</v>
       </c>
       <c r="V5" t="n">
-        <v>2525.1049926066</v>
+        <v>2120.647799193336</v>
       </c>
       <c r="W5" t="n">
-        <v>2120.249538017633</v>
+        <v>2119.832748644773</v>
       </c>
       <c r="X5" t="n">
-        <v>1701.107074596944</v>
+        <v>2104.730689264488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1292.820950896597</v>
+        <v>1696.444565564141</v>
       </c>
     </row>
     <row r="6">
@@ -4644,7 +4646,7 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
         <v>1058.729261281022</v>
@@ -4723,7 +4725,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
         <v>414.7393562644539</v>
@@ -4753,22 +4755,22 @@
         <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2489.401636434796</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2210.968635687901</v>
+        <v>2164.252715036267</v>
       </c>
       <c r="V7" t="n">
-        <v>1924.013127558332</v>
+        <v>1877.297206906698</v>
       </c>
       <c r="W7" t="n">
-        <v>1651.986723144624</v>
+        <v>1605.270802492989</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1359.879047826402</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1331.865744460759</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C8" t="n">
-        <v>1297.763675684586</v>
+        <v>614.758195394171</v>
       </c>
       <c r="D8" t="n">
-        <v>912.8176076703177</v>
+        <v>178.8484105686155</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>149.1140697673148</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>125.2870442169265</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4808,19 +4810,19 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2586.408952615265</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>2181.553498026298</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1762.411034605609</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1354.124910905262</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C9" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D9" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E9" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F9" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G9" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I9" t="n">
-        <v>73.33088177303154</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="Q9" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R9" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S9" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T9" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U9" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V9" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W9" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X9" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y9" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="10">
@@ -4993,10 +4995,10 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2069.115825625685</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W10" t="n">
         <v>1797.089421211977</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1174.93860455395</v>
+        <v>2527.881240296756</v>
       </c>
       <c r="C11" t="n">
-        <v>1174.93860455395</v>
+        <v>2089.738767480179</v>
       </c>
       <c r="D11" t="n">
-        <v>1174.93860455395</v>
+        <v>1653.828982654623</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.93860455395</v>
+        <v>1220.054237812918</v>
       </c>
       <c r="F11" t="n">
-        <v>747.0711749631575</v>
+        <v>792.1868082221263</v>
       </c>
       <c r="G11" t="n">
-        <v>345.6733435864214</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963766</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="L11" t="n">
-        <v>1185.945282862319</v>
+        <v>1611.556686621524</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862319</v>
+        <v>2768.604521832074</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862319</v>
+        <v>3687.29298499533</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3687.29298499533</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4515.602859828726</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.668109022718</v>
+        <v>4978.449771971157</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.668109022718</v>
+        <v>4758.382544844196</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.668109022718</v>
+        <v>4499.160242161212</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.051158956545</v>
+        <v>4186.464852491666</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.195704367578</v>
+        <v>3781.609397902699</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.053240946889</v>
+        <v>3362.46693448201</v>
       </c>
       <c r="Y11" t="n">
-        <v>1536.053240946889</v>
+        <v>2954.180810781663</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>425.8003578819587</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677763</v>
+        <v>1106.533877952336</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677763</v>
+        <v>1106.533877952336</v>
       </c>
       <c r="M12" t="n">
-        <v>56.12639965677763</v>
+        <v>1106.533877952336</v>
       </c>
       <c r="N12" t="n">
-        <v>750.6905954094008</v>
+        <v>1106.533877952336</v>
       </c>
       <c r="O12" t="n">
-        <v>1178.627222503511</v>
+        <v>1106.533877952336</v>
       </c>
       <c r="P12" t="n">
-        <v>1178.627222503511</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>829.6911109848612</v>
+        <v>1010.542189778365</v>
       </c>
       <c r="C13" t="n">
-        <v>657.1293994680861</v>
+        <v>837.98047826159</v>
       </c>
       <c r="D13" t="n">
-        <v>491.2514066696088</v>
+        <v>672.1024854631127</v>
       </c>
       <c r="E13" t="n">
-        <v>321.4934029203461</v>
+        <v>672.1024854631127</v>
       </c>
       <c r="F13" t="n">
-        <v>144.7863488821023</v>
+        <v>495.3954314248689</v>
       </c>
       <c r="G13" t="n">
-        <v>144.7863488821023</v>
+        <v>329.8041564506966</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695243</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559575</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264947</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="S13" t="n">
-        <v>2577.615514768045</v>
+        <v>2558.660274116543</v>
       </c>
       <c r="T13" t="n">
-        <v>2331.7360683465</v>
+        <v>2312.780827694998</v>
       </c>
       <c r="U13" t="n">
-        <v>2053.303067599606</v>
+        <v>2034.347826948103</v>
       </c>
       <c r="V13" t="n">
-        <v>1766.347559470036</v>
+        <v>1747.392318818534</v>
       </c>
       <c r="W13" t="n">
-        <v>1494.321155056328</v>
+        <v>1675.172233849831</v>
       </c>
       <c r="X13" t="n">
-        <v>1248.92940038974</v>
+        <v>1429.780479183244</v>
       </c>
       <c r="Y13" t="n">
-        <v>1021.509729703848</v>
+        <v>1202.360808497352</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1185.213647779734</v>
+        <v>2527.881240296756</v>
       </c>
       <c r="C14" t="n">
-        <v>747.0711749631575</v>
+        <v>2089.738767480179</v>
       </c>
       <c r="D14" t="n">
-        <v>747.0711749631575</v>
+        <v>1653.828982654623</v>
       </c>
       <c r="E14" t="n">
-        <v>747.0711749631575</v>
+        <v>1220.054237812918</v>
       </c>
       <c r="F14" t="n">
-        <v>747.0711749631575</v>
+        <v>792.1868082221263</v>
       </c>
       <c r="G14" t="n">
-        <v>345.6733435864214</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963767</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862319</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862319</v>
+        <v>2707.113318425023</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3687.29298499533</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>4515.602859828726</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.668109022719</v>
+        <v>4978.449771971157</v>
       </c>
       <c r="T14" t="n">
-        <v>2502.600881895758</v>
+        <v>4758.382544844196</v>
       </c>
       <c r="U14" t="n">
-        <v>2417.497689489737</v>
+        <v>4499.160242161212</v>
       </c>
       <c r="V14" t="n">
-        <v>2417.497689489737</v>
+        <v>4136.543292095039</v>
       </c>
       <c r="W14" t="n">
-        <v>2012.642234900771</v>
+        <v>3731.687837506072</v>
       </c>
       <c r="X14" t="n">
-        <v>1593.499771480081</v>
+        <v>3362.46693448201</v>
       </c>
       <c r="Y14" t="n">
-        <v>1185.213647779734</v>
+        <v>2954.180810781663</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056517</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723523</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>425.8003578819587</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>425.8003578819587</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>425.8003578819587</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>425.8003578819587</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>425.8003578819587</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>425.8003578819587</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1223.74285576248</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873.9628995265592</v>
+        <v>789.3180490387308</v>
       </c>
       <c r="C16" t="n">
-        <v>873.9628995265592</v>
+        <v>616.7563375219557</v>
       </c>
       <c r="D16" t="n">
-        <v>708.0849067280819</v>
+        <v>450.8783447234784</v>
       </c>
       <c r="E16" t="n">
-        <v>538.3269029788192</v>
+        <v>281.1203409742157</v>
       </c>
       <c r="F16" t="n">
-        <v>361.6198489405755</v>
+        <v>266.8333078899187</v>
       </c>
       <c r="G16" t="n">
-        <v>196.0285739664031</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2696.483821523918</v>
       </c>
       <c r="S16" t="n">
-        <v>2621.887303309743</v>
+        <v>2537.242452821915</v>
       </c>
       <c r="T16" t="n">
-        <v>2376.007856888198</v>
+        <v>2291.36300640037</v>
       </c>
       <c r="U16" t="n">
-        <v>2097.574856141303</v>
+        <v>2012.930005653475</v>
       </c>
       <c r="V16" t="n">
-        <v>1810.619348011734</v>
+        <v>1725.974497523906</v>
       </c>
       <c r="W16" t="n">
-        <v>1538.592943598026</v>
+        <v>1453.948093110197</v>
       </c>
       <c r="X16" t="n">
-        <v>1293.201188931438</v>
+        <v>1208.55633844361</v>
       </c>
       <c r="Y16" t="n">
-        <v>1065.781518245546</v>
+        <v>981.136667757718</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5513,16 +5515,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5552,13 +5554,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>210.9600532992111</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>210.9600532992111</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>210.9600532992111</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>210.9600532992111</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N18" t="n">
-        <v>210.9600532992111</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
         <v>1765.500601749588</v>
@@ -5686,31 +5688,31 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
         <v>1600.55729028754</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5780,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>3346.878440713109</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>3174.316729196334</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>3008.438736397857</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>2838.680732648594</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>2661.97367861035</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636178</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636178</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636178</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800868</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>5094.802844496292</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>4848.923398074748</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>4570.490397327853</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>4283.534889198284</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>4011.508484784576</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>3766.116730117988</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>3538.697059432096</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5995,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
         <v>3569.079287993933</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>904.7306530065579</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>738.8526602080806</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>569.0946564588178</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.11098324232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4986.778077699538</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6312,13 +6314,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P27" t="n">
         <v>1765.500601749588</v>
@@ -6409,13 +6411,13 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V28" t="n">
         <v>2117.975449367836</v>
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6643,16 +6645,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T31" t="n">
-        <v>2538.261260176947</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
         <v>2117.975449367836</v>
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1134.430677610025</v>
       </c>
       <c r="M32" t="n">
-        <v>2758.053686176683</v>
+        <v>2291.478512820576</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6886,22 +6888,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2594.704009018975</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U34" t="n">
-        <v>2316.271008272081</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V34" t="n">
-        <v>2029.315500142511</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W34" t="n">
-        <v>1757.289095728803</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6940,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3572.656769371182</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4400.966644204577</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4947.465430163173</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3612.585326989406</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4293.318847059783</v>
+        <v>634.526213836947</v>
       </c>
       <c r="L36" t="n">
-        <v>4293.318847059783</v>
+        <v>634.526213836947</v>
       </c>
       <c r="M36" t="n">
-        <v>4293.318847059783</v>
+        <v>634.526213836947</v>
       </c>
       <c r="N36" t="n">
-        <v>4293.318847059783</v>
+        <v>634.526213836947</v>
       </c>
       <c r="O36" t="n">
-        <v>4293.318847059783</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>875.8255515988633</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>703.2638400820882</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>537.3858472836109</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>367.6278435343481</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>190.9207894961043</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7120,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2099.437508213608</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1812.482000084038</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1540.45559567033</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1295.063841003742</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1067.64417031785</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,40 +7183,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3572.656769371182</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4400.966644204577</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4947.465430163173</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136696</v>
@@ -7248,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1236.176960051778</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1008.757289365886</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1364.370191513475</v>
+        <v>2477.959679900128</v>
       </c>
       <c r="C41" t="n">
-        <v>926.2277186968979</v>
+        <v>2039.817207083551</v>
       </c>
       <c r="D41" t="n">
-        <v>490.3179338713425</v>
+        <v>1603.907422257996</v>
       </c>
       <c r="E41" t="n">
-        <v>56.54318902963764</v>
+        <v>1170.132677416291</v>
       </c>
       <c r="F41" t="n">
-        <v>56.54318902963764</v>
+        <v>742.2652478254986</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963764</v>
+        <v>340.8674164487625</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963764</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862319</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L41" t="n">
-        <v>1185.945282862319</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M41" t="n">
-        <v>1185.945282862319</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="N41" t="n">
-        <v>1185.945282862319</v>
+        <v>2537.959253671966</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3518.138920242272</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.66713212723</v>
+        <v>4346.448795075668</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085825</v>
+        <v>4892.947581034263</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4978.449771971156</v>
       </c>
       <c r="T41" t="n">
-        <v>2586.252755711921</v>
+        <v>4758.382544844195</v>
       </c>
       <c r="U41" t="n">
-        <v>2586.252755711921</v>
+        <v>4499.160242161211</v>
       </c>
       <c r="V41" t="n">
-        <v>2223.635805645747</v>
+        <v>4136.543292095038</v>
       </c>
       <c r="W41" t="n">
-        <v>2209.812225419072</v>
+        <v>3731.687837506071</v>
       </c>
       <c r="X41" t="n">
-        <v>1790.669761998382</v>
+        <v>3312.545374085382</v>
       </c>
       <c r="Y41" t="n">
-        <v>1790.669761998382</v>
+        <v>2904.259250385036</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056517</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677764</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J42" t="n">
-        <v>380.68472462299</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K42" t="n">
-        <v>1061.418244693367</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.418244693367</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.418244693367</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.418244693367</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.418244693367</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.2024157797618</v>
+        <v>3314.177242004137</v>
       </c>
       <c r="C43" t="n">
-        <v>626.9868522041439</v>
+        <v>3141.615530487361</v>
       </c>
       <c r="D43" t="n">
-        <v>626.9868522041439</v>
+        <v>2975.737537688884</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>2805.979533939621</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>2629.272479901378</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>2463.681204927205</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>2445.44203588452</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677764</v>
+        <v>2445.44203588452</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>2532.02172104921</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>2806.780175620346</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>3224.990057388306</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>3684.473924569219</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>4126.732727726864</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>4546.401976952646</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>4893.908870922987</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>4816.222199365775</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>4537.789198618881</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>4250.833690489311</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>3978.807286075603</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>3733.415531409015</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.021034498749</v>
+        <v>3505.995860723124</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1184.796858406874</v>
+        <v>2527.881240296756</v>
       </c>
       <c r="C44" t="n">
-        <v>746.6543855902976</v>
+        <v>2089.738767480179</v>
       </c>
       <c r="D44" t="n">
-        <v>746.6543855902976</v>
+        <v>1653.828982654623</v>
       </c>
       <c r="E44" t="n">
-        <v>746.6543855902976</v>
+        <v>1220.054237812918</v>
       </c>
       <c r="F44" t="n">
-        <v>746.6543855902976</v>
+        <v>792.1868082221263</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135614</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677764</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677764</v>
+        <v>724.0831943171561</v>
       </c>
       <c r="L44" t="n">
-        <v>56.12639965677764</v>
+        <v>1799.143160570015</v>
       </c>
       <c r="M44" t="n">
-        <v>56.12639965677764</v>
+        <v>2956.190995780566</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5387406219837</v>
+        <v>4081.921979217013</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>5062.101645787319</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022719</v>
+        <v>4978.449771971156</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895758</v>
+        <v>4758.382544844195</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.378579212775</v>
+        <v>4499.160242161211</v>
       </c>
       <c r="V44" t="n">
-        <v>1880.761629146601</v>
+        <v>4186.464852491666</v>
       </c>
       <c r="W44" t="n">
-        <v>1611.096428891782</v>
+        <v>3781.609397902699</v>
       </c>
       <c r="X44" t="n">
-        <v>1611.096428891782</v>
+        <v>3362.46693448201</v>
       </c>
       <c r="Y44" t="n">
-        <v>1611.096428891782</v>
+        <v>2954.180810781663</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056517</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723523</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.454444409171</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>936.021034498749</v>
+        <v>951.7380699926775</v>
       </c>
       <c r="C46" t="n">
-        <v>763.459322981974</v>
+        <v>779.1763584759025</v>
       </c>
       <c r="D46" t="n">
-        <v>597.5813301834967</v>
+        <v>613.2983656774252</v>
       </c>
       <c r="E46" t="n">
-        <v>427.8233264342339</v>
+        <v>443.5403619281625</v>
       </c>
       <c r="F46" t="n">
-        <v>251.1162723959901</v>
+        <v>266.8333078899187</v>
       </c>
       <c r="G46" t="n">
-        <v>251.1162723959901</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="H46" t="n">
-        <v>111.2140980863647</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2699.662473775862</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2453.783027354317</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2175.350026607422</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1888.394518477852</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1616.368114064144</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1370.976359397557</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1143.556688711665</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8145,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,22 +8221,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8456,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8471,7 +8473,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8535,7 +8537,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,28 +8692,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>927.9681446093491</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>432.2592192869798</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>263.8447877225472</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>806.0025231116376</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9240,13 +9242,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9641,16 +9643,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1050.672356668189</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9893,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>127.53932913075</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,16 +9962,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10112,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>1042.595795292167</v>
       </c>
       <c r="M32" t="n">
-        <v>753.9218057523904</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,10 +10588,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10600,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>167.2490741169777</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>138.100405827046</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>183.4781570095934</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,13 +10831,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>167.2490741169786</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11060,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>92.98209605279226</v>
       </c>
       <c r="O41" t="n">
-        <v>212.2804580932204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>629.1324862640503</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>651.9316575406122</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097205</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.53308475104936</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>49.42234479266045</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>84.63380825305039</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>197.808256250556</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23549,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>172.3779191741932</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655125</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>49.42234479266062</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>160.7958207444073</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>128.4628789093289</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>122.4480280049933</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627208</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473433</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>122.4480280049976</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>81.78272691405301</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>120.4463752142717</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U37" t="n">
-        <v>84.63380825304861</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>26.33579611060387</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>49.42234479266139</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>387.1215556186684</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>54.79268646174557</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25868,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>49.42234479266131</v>
       </c>
       <c r="W44" t="n">
-        <v>133.8383517908063</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>33.23652828778027</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>504562.7179055125</v>
+        <v>502068.417493979</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331455.535493048</v>
+        <v>497042.8238806983</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>331455.535493048</v>
+        <v>497042.8238806984</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>500782.1385067609</v>
+        <v>500782.138506761</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>500782.1385067609</v>
+        <v>500782.1385067611</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>500782.1385067608</v>
+        <v>500782.1385067609</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500782.1385067609</v>
+        <v>500782.138506761</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>331455.5354930481</v>
+        <v>497042.8238806982</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>331455.5354930481</v>
+        <v>497042.8238806982</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442321.5389095869</v>
+        <v>442321.538909587</v>
       </c>
       <c r="C2" t="n">
         <v>442321.538909587</v>
@@ -26320,28 +26322,28 @@
         <v>442321.5389095869</v>
       </c>
       <c r="E2" t="n">
-        <v>287689.2477427712</v>
+        <v>431411.9415307816</v>
       </c>
       <c r="F2" t="n">
-        <v>287689.2477427711</v>
+        <v>431411.9415307816</v>
       </c>
       <c r="G2" t="n">
         <v>434657.5069133157</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133158</v>
       </c>
       <c r="I2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="K2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="L2" t="n">
         <v>434657.5069133157</v>
-      </c>
-      <c r="L2" t="n">
-        <v>434657.5069133156</v>
       </c>
       <c r="M2" t="n">
         <v>434657.5069133157</v>
@@ -26350,10 +26352,10 @@
         <v>434657.5069133156</v>
       </c>
       <c r="O2" t="n">
-        <v>287689.2477427712</v>
+        <v>431411.9415307816</v>
       </c>
       <c r="P2" t="n">
-        <v>287689.2477427712</v>
+        <v>431411.9415307817</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78577.04195825371</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045617</v>
+        <v>178552.6909404109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>3490.497673803507</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62596.87743601672</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340787</v>
+        <v>149026.5350866915</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122130.8532251353</v>
+        <v>175300.2398651109</v>
       </c>
       <c r="C4" t="n">
         <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>9428.555608343486</v>
+        <v>14138.83734877482</v>
       </c>
       <c r="F4" t="n">
-        <v>9428.555608343486</v>
+        <v>14138.83734877482</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049259</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.2055704926</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9428.555608343537</v>
+        <v>14138.83734877482</v>
       </c>
       <c r="P4" t="n">
-        <v>9428.555608343537</v>
+        <v>14138.83734877481</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>76943.94501596727</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>76943.94501596727</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>76943.94501596726</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>76943.94501596726</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22278.46253864908</v>
+        <v>65405.21024754376</v>
       </c>
       <c r="C6" t="n">
-        <v>245978.161122694</v>
+        <v>167401.1191644403</v>
       </c>
       <c r="D6" t="n">
         <v>245978.161122694</v>
       </c>
       <c r="E6" t="n">
-        <v>225433.6317948205</v>
+        <v>161776.4682256286</v>
       </c>
       <c r="F6" t="n">
-        <v>235604.6283952766</v>
+        <v>340329.1591660395</v>
       </c>
       <c r="G6" t="n">
-        <v>184634.5857909214</v>
+        <v>339203.565063227</v>
       </c>
       <c r="H6" t="n">
+        <v>342694.0627370306</v>
+      </c>
+      <c r="I6" t="n">
         <v>342694.0627370305</v>
       </c>
-      <c r="I6" t="n">
-        <v>342694.0627370304</v>
-      </c>
       <c r="J6" t="n">
-        <v>168042.7140193243</v>
+        <v>231679.5973920402</v>
       </c>
       <c r="K6" t="n">
-        <v>342694.0627370305</v>
+        <v>280097.1853010137</v>
       </c>
       <c r="L6" t="n">
-        <v>342694.0627370304</v>
+        <v>342694.0627370306</v>
       </c>
       <c r="M6" t="n">
-        <v>334204.9810336897</v>
+        <v>193667.5276503391</v>
       </c>
       <c r="N6" t="n">
         <v>342694.0627370304</v>
       </c>
       <c r="O6" t="n">
-        <v>235604.6283952767</v>
+        <v>340329.1591660395</v>
       </c>
       <c r="P6" t="n">
-        <v>235604.6283952766</v>
+        <v>340329.1591660396</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097205</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097205</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097205</v>
+        <v>1265.52541144683</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>598.0102048389731</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750248</v>
+        <v>12.73509193791527</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>598.0102048389731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>598.0102048389731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750248</v>
+        <v>12.73509193791527</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>370.1803477317474</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>108.58676008964</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>56.36113619101582</v>
+        <v>78.99360559084536</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>71.7019632559539</v>
       </c>
       <c r="V5" t="n">
-        <v>215.484505078932</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>143.6516710866795</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>50.4540796431744</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>326.6295051306852</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,7 +27912,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28065,13 +28067,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>117.766182674437</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28384,16 +28386,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.627902948778678e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28624,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,22 +34941,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35176,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.13097499434645</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>927.9681446093491</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>432.2592192869798</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35583,7 +35585,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165047</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>263.8447877225472</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>806.0025231116376</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132075</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,10 +35810,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36054,7 +36056,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961004</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,16 +36363,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1050.672356668189</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36613,10 +36615,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>127.53932913075</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>1042.595795292167</v>
       </c>
       <c r="M32" t="n">
-        <v>753.9218057523904</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>167.2490741169777</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>138.100405827046</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>183.4781570095934</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638363</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,13 +37551,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>167.2490741169786</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>92.98209605279226</v>
       </c>
       <c r="O41" t="n">
-        <v>212.2804580932204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080414</v>
@@ -37950,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>629.1324862640503</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>651.9316575406122</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097205</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2102413.345620637</v>
+        <v>2101886.919221771</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16614581.94299117</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>318032.2590466435</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5788096.522698768</v>
+        <v>5798656.295771847</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -667,7 +667,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>295.6165023737031</v>
+        <v>256.987947423163</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>213.0068025776829</v>
       </c>
       <c r="W4" t="n">
-        <v>190.312534778726</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>381.6835762688486</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>184.9281164001994</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>78.47678022721453</v>
+        <v>254.6050071342495</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>347.203406430848</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1147,7 +1147,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>70.75434793228359</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765157</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>166.3197703738368</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1429,7 +1429,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>309.5684357728513</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>39.88277234054614</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>71.49788411901537</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1660,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>365.5286939938218</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1767,25 +1767,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345401</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>56.95997704284437</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1849,10 +1849,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2004,13 +2004,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2055,10 +2055,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>216.4484901083799</v>
       </c>
       <c r="U19" t="n">
-        <v>153.2006427344324</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735226246</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6379250432762</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>75.86622810093029</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555184</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>148.6041873872574</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>173.7040795765152</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3559,7 +3559,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3714,10 +3714,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>216.6020410093178</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>236.8165082185545</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3793,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225796</v>
+        <v>73.01514676193455</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V44" t="n">
-        <v>309.5684357728504</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>54.82067209135266</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>552.3238179760524</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2217491998797</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
         <v>57.77069415199655</v>
@@ -4333,25 +4333,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L2" t="n">
         <v>874.0494664914149</v>
       </c>
-      <c r="L2" t="n">
-        <v>1294.102365436318</v>
-      </c>
       <c r="M2" t="n">
-        <v>1697.183430080417</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>1697.183430080417</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>450.4214956153326</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>435.3194362350473</v>
       </c>
       <c r="Y2" t="n">
-        <v>978.6233884609602</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>593.9750599092082</v>
+        <v>936.2947751752459</v>
       </c>
       <c r="C4" t="n">
-        <v>593.9750599092082</v>
+        <v>763.7330636584709</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E4" t="n">
         <v>428.0970671107308</v>
@@ -4491,13 +4491,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>1146.964903885608</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
         <v>1277.514180854636</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>936.2947751752459</v>
       </c>
       <c r="W4" t="n">
-        <v>821.3947305950999</v>
+        <v>936.2947751752459</v>
       </c>
       <c r="X4" t="n">
-        <v>821.3947305950999</v>
+        <v>936.2947751752459</v>
       </c>
       <c r="Y4" t="n">
-        <v>593.9750599092082</v>
+        <v>936.2947751752459</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1674.185399119638</v>
+        <v>820.8072974370156</v>
       </c>
       <c r="C5" t="n">
-        <v>1640.083330343465</v>
+        <v>786.705228660843</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.173545517909</v>
+        <v>754.8358478756916</v>
       </c>
       <c r="E5" t="n">
-        <v>770.3988006762045</v>
+        <v>725.1015070743908</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>339.5625411462609</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>339.5625411462609</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726471</v>
       </c>
       <c r="L5" t="n">
-        <v>1810.336013065103</v>
+        <v>557.7649106726471</v>
       </c>
       <c r="M5" t="n">
-        <v>2471.176067606882</v>
+        <v>557.7649106726471</v>
       </c>
       <c r="N5" t="n">
-        <v>2670.060826431428</v>
+        <v>557.7649106726471</v>
       </c>
       <c r="O5" t="n">
-        <v>2670.060826431428</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>1805.966478762207</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2352.465264720802</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="U5" t="n">
-        <v>2483.264749259509</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.647799193336</v>
+        <v>2075.350505591522</v>
       </c>
       <c r="W5" t="n">
-        <v>2119.832748644773</v>
+        <v>1670.495051002555</v>
       </c>
       <c r="X5" t="n">
-        <v>2104.730689264488</v>
+        <v>1251.352587581866</v>
       </c>
       <c r="Y5" t="n">
-        <v>1696.444565564141</v>
+        <v>843.0664638815193</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>1040.830597976034</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>868.2688864592589</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>702.3908936607816</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>532.6328899115188</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>355.925835873275</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>190.3345608991027</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="U7" t="n">
-        <v>2164.252715036267</v>
+        <v>2264.442554590778</v>
       </c>
       <c r="V7" t="n">
-        <v>1877.297206906698</v>
+        <v>1977.487046461209</v>
       </c>
       <c r="W7" t="n">
-        <v>1605.270802492989</v>
+        <v>1705.4606420475</v>
       </c>
       <c r="X7" t="n">
-        <v>1359.879047826402</v>
+        <v>1460.068887380913</v>
       </c>
       <c r="Y7" t="n">
-        <v>1132.45937714051</v>
+        <v>1232.649216695021</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.8602641703436</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>614.758195394171</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>178.8484105686155</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>149.1140697673148</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>125.2870442169265</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4807,22 +4807,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655251</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>1032.884738113077</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J9" t="n">
-        <v>1357.443063079289</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>2552.888048337089</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>2552.888048337089</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>2552.888048337089</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>2552.888048337089</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>2552.888048337089</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V10" t="n">
-        <v>1797.089421211977</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2527.881240296756</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2089.738767480179</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1653.828982654623</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.054237812918</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>792.1868082221263</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G11" t="n">
-        <v>390.7889768453902</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>101.6588222886064</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>536.4967203686642</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>536.4967203686642</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1611.556686621524</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2768.604521832074</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>3687.29298499533</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3687.29298499533</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4515.602859828726</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>5062.10164578732</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5062.10164578732</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4978.449771971157</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4758.382544844196</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4499.160242161212</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4186.464852491666</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3781.609397902699</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3362.46693448201</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2954.180810781663</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>607.4137779070392</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>500.9573167436815</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>405.8670278902347</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>311.7466132171884</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>228.36277483335</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>142.9776850995339</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>101.2420329157464</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>425.8003578819587</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1106.533877952336</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1106.533877952336</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1106.533877952336</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1106.533877952336</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1106.533877952336</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1106.57007766814</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1647.309016300215</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1764.481794394555</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1701.026356842938</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1570.84771317354</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1394.511166173508</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1195.393648235507</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1010.070893968702</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>855.2034582075815</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>728.7176789868023</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1010.542189778365</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>837.98047826159</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>672.1024854631127</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>672.1024854631127</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>495.3954314248689</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>329.8041564506966</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>189.9019821410711</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>187.8217180804363</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>462.5801726515718</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>880.7900544195329</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1340.273921600446</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1782.532724758091</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2202.201973983872</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2549.708867954214</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2717.901642818546</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2717.901642818546</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2558.660274116543</v>
+        <v>2657.217000252137</v>
       </c>
       <c r="T13" t="n">
-        <v>2312.780827694998</v>
+        <v>2411.337553830592</v>
       </c>
       <c r="U13" t="n">
-        <v>2034.347826948103</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V13" t="n">
-        <v>1747.392318818534</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W13" t="n">
-        <v>1675.172233849831</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1429.780479183244</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1202.360808497352</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2527.881240296756</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2089.738767480179</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1653.828982654623</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.054237812918</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>792.1868082221263</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>390.7889768453902</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>101.6588222886064</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>536.4967203686642</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1370.847012326842</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2445.906978579702</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2445.906978579702</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2707.113318425023</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3687.29298499533</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4515.602859828726</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5062.10164578732</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5062.10164578732</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4978.449771971157</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4758.382544844196</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4499.160242161212</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4136.543292095039</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3731.687837506072</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3362.46693448201</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2954.180810781663</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>607.4137779070392</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>500.9573167436815</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>405.8670278902347</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>311.7466132171884</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>228.36277483335</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>142.9776850995339</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>101.2420329157464</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>425.8003578819587</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>425.8003578819587</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>425.8003578819587</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>425.8003578819587</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>425.8003578819587</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>425.8003578819587</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1223.74285576248</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1764.481794394555</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1764.481794394555</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1701.026356842938</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1570.84771317354</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1394.511166173508</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1195.393648235507</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1010.070893968702</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>855.2034582075815</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>728.7176789868023</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.3180490387308</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>616.7563375219557</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D16" t="n">
-        <v>450.8783447234784</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="E16" t="n">
-        <v>281.1203409742157</v>
+        <v>641.9966739391286</v>
       </c>
       <c r="F16" t="n">
-        <v>266.8333078899187</v>
+        <v>465.2896199008849</v>
       </c>
       <c r="G16" t="n">
-        <v>101.2420329157464</v>
+        <v>299.6983449267125</v>
       </c>
       <c r="H16" t="n">
-        <v>101.2420329157464</v>
+        <v>159.7961706170871</v>
       </c>
       <c r="I16" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>187.8217180804363</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>462.5801726515718</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>880.7900544195329</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1340.273921600446</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1782.532724758091</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2202.201973983872</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2549.708867954214</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2717.901642818546</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2696.483821523918</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2537.242452821915</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2291.36300640037</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2012.930005653475</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1725.974497523906</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1453.948093110197</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1208.55633844361</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>981.136667757718</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5506,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5527,40 +5527,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E19" t="n">
         <v>673.1212928181459</v>
@@ -5664,7 +5664,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5688,37 +5688,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.67908147158</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2559.67908147158</v>
+        <v>2341.044242978262</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2062.611242231368</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1775.655734101798</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1503.62932968809</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1258.237575021502</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1030.81790433561</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5758,46 +5758,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3346.878440713109</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>3174.316729196334</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>3008.438736397857</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>2838.680732648594</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>2661.97367861035</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800868</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>5094.802844496292</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4848.923398074748</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>4570.490397327853</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>4283.534889198284</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>4011.508484784576</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>3766.116730117988</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3538.697059432096</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5995,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6648,16 +6648,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2642.287896536276</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2396.408450114731</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W31" t="n">
         <v>1845.949044954127</v>
@@ -6700,22 +6700,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1134.430677610025</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2291.478512820576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.416826573035</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C34" t="n">
-        <v>868.8551150562604</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577831</v>
+        <v>816.2774823142732</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>646.5194785650106</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
         <v>190.9207894961043</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2543.461783934675</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2265.02878318778</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1978.07327505821</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1706.046870644502</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.655115977914</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1233.235445292023</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6940,13 +6940,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7019,22 +7019,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>634.526213836947</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>634.526213836947</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>634.526213836947</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>634.526213836947</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7183,40 +7183,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136696</v>
@@ -7250,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1008.757289365886</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
         <v>1008.757289365886</v>
@@ -7323,7 +7323,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7362,22 +7362,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1236.176960051778</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1008.757289365886</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2477.959679900128</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2039.817207083551</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1603.907422257996</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1170.132677416291</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>742.2652478254986</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>340.8674164487625</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>101.6588222886064</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>536.4967203686642</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.847012326842</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.906978579702</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.906978579702</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2537.959253671966</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3518.138920242272</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4346.448795075668</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4892.947581034263</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5062.101645787319</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4978.449771971156</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4758.382544844195</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4499.160242161211</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4136.543292095038</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3731.687837506071</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3312.545374085382</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2904.259250385036</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>607.4137779070392</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.9573167436815</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.8670278902347</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>311.7466132171884</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>228.36277483335</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.9776850995339</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>127.305706076204</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.8640310424163</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1106.57007766814</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1106.57007766814</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1106.57007766814</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1106.57007766814</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1106.57007766814</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1106.57007766814</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1647.309016300215</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1764.481794394555</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.026356842938</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.84771317354</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1394.511166173508</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1195.393648235507</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.070893968702</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>855.2034582075815</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>728.7176789868023</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3314.177242004137</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C43" t="n">
-        <v>3141.615530487361</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D43" t="n">
-        <v>2975.737537688884</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E43" t="n">
-        <v>2805.979533939621</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F43" t="n">
-        <v>2629.272479901378</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G43" t="n">
-        <v>2463.681204927205</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="H43" t="n">
-        <v>2445.44203588452</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>2445.44203588452</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>2532.02172104921</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>2806.780175620346</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>3224.990057388306</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>3684.473924569219</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>4126.732727726864</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>4546.401976952646</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>4893.908870922987</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>5062.101645787319</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>5062.101645787319</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>5062.101645787319</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T43" t="n">
-        <v>4816.222199365775</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U43" t="n">
-        <v>4537.789198618881</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V43" t="n">
-        <v>4250.833690489311</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W43" t="n">
-        <v>3978.807286075603</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X43" t="n">
-        <v>3733.415531409015</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y43" t="n">
-        <v>3505.995860723124</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2527.881240296756</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2089.738767480179</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1653.828982654623</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1220.054237812918</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>792.1868082221263</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>390.7889768453902</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>101.6588222886064</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>101.2420329157464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>724.0831943171561</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1799.143160570015</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2956.190995780566</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>4081.921979217013</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>5062.101645787319</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>5062.101645787319</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5062.101645787319</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5062.101645787319</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4978.449771971156</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4758.382544844195</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4499.160242161211</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4186.464852491666</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3781.609397902699</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3362.46693448201</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2954.180810781663</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>607.4137779070392</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>500.9573167436815</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>405.8670278902347</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>311.7466132171884</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>228.36277483335</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>142.9776850995339</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>127.305706076204</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>451.8640310424163</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1106.57007766814</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1106.57007766814</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1106.57007766814</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1106.57007766814</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1106.57007766814</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1106.57007766814</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1647.309016300215</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1764.481794394555</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.026356842938</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1570.84771317354</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1394.511166173508</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1195.393648235507</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.070893968702</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>855.2034582075815</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>728.7176789868023</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.7380699926775</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C46" t="n">
-        <v>779.1763584759025</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D46" t="n">
-        <v>613.2983656774252</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>443.5403619281625</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>266.8333078899187</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>101.2420329157464</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>187.8217180804363</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.5801726515718</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>880.7900544195329</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1340.273921600446</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1782.532724758091</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2202.201973983872</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2549.708867954214</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2717.901642818546</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2717.901642818546</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2699.662473775862</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2453.783027354317</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2175.350026607422</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1888.394518477852</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1616.368114064144</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1370.976359397557</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1143.556688711665</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8139,16 +8139,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N4" t="n">
-        <v>131.8679565343714</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8218,28 +8218,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611325</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238425</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>667.515206607857</v>
@@ -8473,7 +8473,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8537,7 +8537,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8692,19 +8692,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>927.9681446093491</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03656536949893052</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8935,10 +8935,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>263.8447877225472</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>806.0025231116376</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>715.8552653209142</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,22 +9482,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9643,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9719,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1042.595795292167</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>183.4781570095934</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>92.98209605279226</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>629.1324862640503</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>49.42234479266045</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>197.808256250556</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>49.42234479266062</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>30.81337269022704</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>26.97216184894938</v>
       </c>
       <c r="U19" t="n">
-        <v>122.4480280049933</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627208</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>122.4480280049976</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>81.78272691405301</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>26.33579611060398</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>26.33579611060387</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>49.42234479266139</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142713</v>
+        <v>65.48800580459468</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>49.42234479266131</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>135.0797604404446</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>504562.7179055125</v>
+        <v>504182.1378978583</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>497042.8238806983</v>
+        <v>500782.1385067609</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>497042.8238806984</v>
+        <v>500782.1385067609</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>500782.1385067611</v>
+        <v>500782.1385067609</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>500782.1385067609</v>
+        <v>500782.138506761</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500782.138506761</v>
+        <v>500782.1385067609</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>497042.8238806982</v>
+        <v>500782.1385067608</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>497042.8238806982</v>
+        <v>500782.1385067609</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095868</v>
       </c>
       <c r="C2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095868</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095869</v>
+        <v>442321.5389095868</v>
       </c>
       <c r="E2" t="n">
-        <v>431411.9415307816</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="F2" t="n">
-        <v>431411.9415307816</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="G2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133158</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="I2" t="n">
         <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="K2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="L2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="M2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="N2" t="n">
         <v>434657.5069133157</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>434657.5069133157</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>434657.5069133156</v>
-      </c>
-      <c r="O2" t="n">
-        <v>431411.9415307816</v>
-      </c>
-      <c r="P2" t="n">
-        <v>431411.9415307817</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>78577.04195825371</v>
+        <v>66587.76789501654</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998241</v>
       </c>
       <c r="E3" t="n">
-        <v>178552.6909404109</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3490.497673803507</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>62596.87743601672</v>
+        <v>53045.85463877281</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622019</v>
       </c>
       <c r="M3" t="n">
-        <v>149026.5350866915</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.2398651109</v>
+        <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>122130.8532251352</v>
+        <v>130243.4307963241</v>
       </c>
       <c r="D4" t="n">
         <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>14138.83734877482</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>14138.83734877482</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26456,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14138.83734877482</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>14138.83734877481</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>76943.94501596727</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>76943.94501596727</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26505,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76943.94501596726</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>76943.94501596726</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65405.21024754376</v>
+        <v>65405.21024754359</v>
       </c>
       <c r="C6" t="n">
-        <v>167401.1191644403</v>
+        <v>173534.1264102436</v>
       </c>
       <c r="D6" t="n">
-        <v>245978.161122694</v>
+        <v>234450.5655727115</v>
       </c>
       <c r="E6" t="n">
-        <v>161776.4682256286</v>
+        <v>160315.7291765981</v>
       </c>
       <c r="F6" t="n">
-        <v>340329.1591660395</v>
+        <v>342670.8383976477</v>
       </c>
       <c r="G6" t="n">
-        <v>339203.565063227</v>
+        <v>342670.8383976477</v>
       </c>
       <c r="H6" t="n">
-        <v>342694.0627370306</v>
+        <v>342670.8383976478</v>
       </c>
       <c r="I6" t="n">
-        <v>342694.0627370305</v>
+        <v>342670.8383976478</v>
       </c>
       <c r="J6" t="n">
-        <v>231679.5973920402</v>
+        <v>231656.3730526577</v>
       </c>
       <c r="K6" t="n">
-        <v>280097.1853010137</v>
+        <v>289624.983758875</v>
       </c>
       <c r="L6" t="n">
-        <v>342694.0627370306</v>
+        <v>333278.5366710257</v>
       </c>
       <c r="M6" t="n">
-        <v>193667.5276503391</v>
+        <v>190470.6674596601</v>
       </c>
       <c r="N6" t="n">
-        <v>342694.0627370304</v>
+        <v>342670.8383976478</v>
       </c>
       <c r="O6" t="n">
-        <v>340329.1591660395</v>
+        <v>342670.8383976478</v>
       </c>
       <c r="P6" t="n">
-        <v>340329.1591660396</v>
+        <v>342670.8383976478</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1265.52541144683</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1265.52541144683</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1265.52541144683</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1265.52541144683</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27014,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>243.2193490877526</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="E4" t="n">
-        <v>598.0102048389731</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.73509193791527</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>243.2193490877526</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>598.0102048389731</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>243.2193490877526</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>598.0102048389731</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.73509193791527</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,7 +27387,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27432,13 +27432,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>108.58676008964</v>
+        <v>147.2153150401801</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>71.07915047059092</v>
       </c>
       <c r="W4" t="n">
-        <v>78.99360559084536</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>41.90517902603574</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>71.7019632559539</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>197.1718905122112</v>
+        <v>21.04366360517625</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>86.5576416575629</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>326.6295051306852</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>69.71657238081363</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34859,16 +34859,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N4" t="n">
-        <v>131.8679565343714</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -34938,28 +34938,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611325</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35114,7 +35114,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238425</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>667.515206607857</v>
@@ -35193,7 +35193,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35412,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>927.9681446093491</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03656536949893052</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35649,16 +35649,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850285</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>263.8447877225472</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>806.0025231116376</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132075</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>715.8552653209142</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36056,7 +36056,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512984</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36126,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924961004</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36439,22 +36439,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1042.595795292167</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37387,7 +37387,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>183.4781570095934</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37782,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850285</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>92.98209605279226</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>629.1324862640503</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38183,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
